--- a/database/seeders/sell_summaries.xlsx
+++ b/database/seeders/sell_summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CRM\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A4F0D9-8566-4D09-AB61-CF4E8F1CCADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C8744C-4EEE-4185-B1F5-9A3CFDC04EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sell_summaries (1)" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -885,12 +885,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -952,7 +962,7 @@
         <v>44594</v>
       </c>
       <c r="C3">
-        <v>1025</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>44596.178912037038</v>
@@ -978,7 +988,7 @@
         <v>44594</v>
       </c>
       <c r="C4">
-        <v>2048</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
         <v>44596.178912037038</v>
@@ -1056,7 +1066,7 @@
         <v>44596</v>
       </c>
       <c r="C7">
-        <v>2049</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2">
         <v>44596.368819444448</v>
@@ -1082,7 +1092,7 @@
         <v>44596</v>
       </c>
       <c r="C8">
-        <v>257</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
         <v>44596.369039351855</v>
@@ -1108,7 +1118,7 @@
         <v>44596</v>
       </c>
       <c r="C9">
-        <v>1537</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
         <v>44596.369201388887</v>
@@ -1134,7 +1144,7 @@
         <v>44596</v>
       </c>
       <c r="C10">
-        <v>1281</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
         <v>44596.369791666664</v>
@@ -1160,7 +1170,7 @@
         <v>44596</v>
       </c>
       <c r="C11">
-        <v>1536</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>44596.370034722226</v>
@@ -1186,7 +1196,7 @@
         <v>44596</v>
       </c>
       <c r="C12">
-        <v>2048</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
         <v>44596.370243055557</v>
@@ -1212,7 +1222,7 @@
         <v>44596</v>
       </c>
       <c r="C13">
-        <v>769</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
         <v>44596.371805555558</v>
@@ -1238,7 +1248,7 @@
         <v>44596</v>
       </c>
       <c r="C14">
-        <v>1541</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
         <v>44596.372361111113</v>
@@ -1264,7 +1274,7 @@
         <v>44596</v>
       </c>
       <c r="C15">
-        <v>2816</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>44596.373483796298</v>
@@ -1290,7 +1300,7 @@
         <v>44596</v>
       </c>
       <c r="C16">
-        <v>1280</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
         <v>44596.373622685183</v>
@@ -1316,7 +1326,7 @@
         <v>44596</v>
       </c>
       <c r="C17">
-        <v>2050</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2">
         <v>44596.374398148146</v>
@@ -1342,7 +1352,7 @@
         <v>44596</v>
       </c>
       <c r="C18">
-        <v>768</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
         <v>44596.375578703701</v>
@@ -1368,7 +1378,7 @@
         <v>44596</v>
       </c>
       <c r="C19">
-        <v>1285</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2">
         <v>44596.37568287037</v>
@@ -1394,7 +1404,7 @@
         <v>44596</v>
       </c>
       <c r="C20">
-        <v>2305</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2">
         <v>44596.375787037039</v>
@@ -1420,7 +1430,7 @@
         <v>44596</v>
       </c>
       <c r="C21">
-        <v>513</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2">
         <v>44596.375902777778</v>
@@ -1446,7 +1456,7 @@
         <v>44596</v>
       </c>
       <c r="C22">
-        <v>514</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2">
         <v>44596.37605324074</v>
@@ -1472,7 +1482,7 @@
         <v>44596</v>
       </c>
       <c r="C23">
-        <v>1538</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2">
         <v>44596.376145833332</v>
@@ -1498,7 +1508,7 @@
         <v>44596</v>
       </c>
       <c r="C24">
-        <v>515</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2">
         <v>44596.376250000001</v>
@@ -1524,7 +1534,7 @@
         <v>44596</v>
       </c>
       <c r="C25">
-        <v>2308</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2">
         <v>44596.376446759263</v>
@@ -1550,7 +1560,7 @@
         <v>44596</v>
       </c>
       <c r="C26">
-        <v>2053</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2">
         <v>44596.376574074071</v>
@@ -1576,7 +1586,7 @@
         <v>44596</v>
       </c>
       <c r="C27">
-        <v>2560</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2">
         <v>44596.376701388886</v>
